--- a/Results/results_pcomb.xlsx
+++ b/Results/results_pcomb.xlsx
@@ -12,27 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">T</t>
+    <t xml:space="preserve">Tobs</t>
   </si>
   <si>
     <t xml:space="preserve">d</t>
   </si>
   <si>
-    <t xml:space="preserve">overall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">overall_cond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hom_cond</t>
+    <t xml:space="preserve">variant</t>
   </si>
   <si>
     <t xml:space="preserve">cauchy_pcombine</t>
@@ -99,6 +90,9 @@
   </si>
   <si>
     <t xml:space="preserve">Geomean_bonf_cond_pcombine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall_holds</t>
   </si>
 </sst>
 </file>
@@ -509,15 +503,6 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -529,83 +514,154 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.056</v>
+      <c r="D2" t="s">
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>0.066</v>
+        <v>0.0625</v>
       </c>
       <c r="F2" t="n">
-        <v>0.064</v>
+        <v>0.04</v>
       </c>
       <c r="G2" t="n">
-        <v>0.042</v>
+        <v>0.07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07</v>
+        <v>0.0375</v>
       </c>
       <c r="I2" t="n">
-        <v>0.052</v>
+        <v>0.1625</v>
       </c>
       <c r="J2" t="n">
-        <v>0.066</v>
+        <v>0.12</v>
       </c>
       <c r="K2" t="n">
-        <v>0.052</v>
+        <v>0.0675</v>
       </c>
       <c r="L2" t="n">
-        <v>0.116</v>
+        <v>0.0325</v>
       </c>
       <c r="M2" t="n">
-        <v>0.096</v>
+        <v>0.005</v>
       </c>
       <c r="N2" t="n">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.052</v>
+        <v>0.0075</v>
       </c>
       <c r="P2" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.004</v>
+        <v>0.0375</v>
       </c>
       <c r="R2" t="n">
-        <v>0.008</v>
+        <v>0.0175</v>
       </c>
       <c r="S2" t="n">
-        <v>0.006</v>
+        <v>0.0925</v>
       </c>
       <c r="T2" t="n">
-        <v>0.042</v>
+        <v>0.0575</v>
       </c>
       <c r="U2" t="n">
-        <v>0.022</v>
+        <v>0.0325</v>
       </c>
       <c r="V2" t="n">
-        <v>0.068</v>
+        <v>0.0175</v>
       </c>
       <c r="W2" t="n">
-        <v>0.048</v>
+        <v>0.0325</v>
       </c>
       <c r="X2" t="n">
-        <v>0.042</v>
+        <v>0.0175</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.022</v>
+        <v>0.0325</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.022</v>
+        <v>0.0175</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B3" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0325</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1525</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1175</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.015</v>
       </c>
     </row>
   </sheetData>
